--- a/biology/Botanique/Quaqua/Quaqua.xlsx
+++ b/biology/Botanique/Quaqua/Quaqua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quaqua est un genre de plantes à fleurs de la famille des Apocynaceae et à la tribu de plantes connues collectivement sous le nom de stapelias. Toutes les stapelias, y compris Quaqua, sont des succulentes à tige de l'Ancien Monde  [2],[3] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quaqua est un genre de plantes à fleurs de la famille des Apocynaceae et à la tribu de plantes connues collectivement sous le nom de stapelias. Toutes les stapelias, y compris Quaqua, sont des succulentes à tige de l'Ancien Monde  , .
 Les espèces du genre Quaqua sont exceptionnellement variées et endémiques du sud-ouest de l'Afrique, et localement très communes au Namaqualand.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Quaqua se caractérisent généralement par des tiges robustes, fermes, à 4 ou 5 côtés portant des
-tubercules coniques qui ont souvent une pointe dure et effilée à leurs extrémités. Quelques espèces n'ont pas d'épis ou ont des tubercules légèrement arrondis [2].
-Les fleurs de Quaqua se distinguent de celles des autres stapéliacées d'Afrique australe par leurs nombreuses inflorescences émergeant de chaque tige, en particulier plus près des extrémités. Il y en a souvent une dizaine le long de chaque tige, disposés verticalement en séries distiques. Les fleurs de certaines espèces ont une odeur douce (délicate de miel ou de citron ), attrayantes et plutôt petites (entre 7 et 15 mm de diamètre). Les fleurs des autres espèces sont cependant plus grandes, atteignant un diamètre maximum de 27 mm et sont sombres, papillaires et ont généralement une odeur repoussante d'urine ou d'excréments. Ces espèces sont pollinisées par les mouches [2].
+tubercules coniques qui ont souvent une pointe dure et effilée à leurs extrémités. Quelques espèces n'ont pas d'épis ou ont des tubercules légèrement arrondis .
+Les fleurs de Quaqua se distinguent de celles des autres stapéliacées d'Afrique australe par leurs nombreuses inflorescences émergeant de chaque tige, en particulier plus près des extrémités. Il y en a souvent une dizaine le long de chaque tige, disposés verticalement en séries distiques. Les fleurs de certaines espèces ont une odeur douce (délicate de miel ou de citron ), attrayantes et plutôt petites (entre 7 et 15 mm de diamètre). Les fleurs des autres espèces sont cependant plus grandes, atteignant un diamètre maximum de 27 mm et sont sombres, papillaires et ont généralement une odeur repoussante d'urine ou d'excréments. Ces espèces sont pollinisées par les mouches .
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la distribution, le genre Quaqua est limité à la région occidentale (pluies hivernales) de l'Afrique du Sud et de la Namibie. Sa distribution reflète étroitement celle du genre apparenté Tromotriche.
 </t>
@@ -576,9 +592,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Quaqua acutiloba  (N.E.Br.) Bruyns 
 Quaqua albersii   Plowes 
 Quaqua arenicola  (N.E.Br.) Plowes 
@@ -599,7 +617,7 @@
 Quaqua pruinosa    (Masson) Bruyns 
 Quaqua pulchra     (Bruyns) Plowes 
 Quaqua ramosa      (Masson) Bruyns 
-Les espèces de ce genre peuvent être divisées en deux groupes principaux, en fonction de leur structure florale : un groupe porte des fleurs seules ou par paires ; l'autre porte des fleurs en grappes de 4 à 20. Les espèces du deuxième groupe peuvent à leur tour être divisées en deux sections : une avec des fleurs violettes à brun foncé plus larges que 25 mm (par ex. Quaqua mammillaris ou Quaqua pillansii ); l'autre avec des fleurs jaunes à crème plus étroites que 25 mm [4].
+Les espèces de ce genre peuvent être divisées en deux groupes principaux, en fonction de leur structure florale : un groupe porte des fleurs seules ou par paires ; l'autre porte des fleurs en grappes de 4 à 20. Les espèces du deuxième groupe peuvent à leur tour être divisées en deux sections : une avec des fleurs violettes à brun foncé plus larges que 25 mm (par ex. Quaqua mammillaris ou Quaqua pillansii ); l'autre avec des fleurs jaunes à crème plus étroites que 25 mm .
 </t>
         </is>
       </c>
